--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11763_Titled_HC_2.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11763_Titled_HC_2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\Unfriendly_error_msg1(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982B3C6C-5EA1-456C-B4B5-4EBC35520725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CE05E-B40A-43AB-9C91-C49CCE815FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15560" xr2:uid="{7E5704FA-F7FB-4878-A32F-806D7E090EEB}"/>
+    <workbookView xWindow="8480" yWindow="1740" windowWidth="23000" windowHeight="17540" xr2:uid="{7E5704FA-F7FB-4878-A32F-806D7E090EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>SmartLookup String ClassificationGroup2 ( Integer age, String smokerIndicator, Double height, Double weight, String gender)</t>
   </si>
@@ -136,17 +136,19 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   / MinMax Weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -235,7 +237,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -586,16 +588,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD994A99-1194-4D5E-B99A-9908AC0A2424}">
   <dimension ref="D4:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" customWidth="true" width="15.54296875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="17.7265625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="23.453125" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="21.81640625" collapsed="false"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:18" x14ac:dyDescent="0.35">
@@ -626,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>
